--- a/data/trans_dic/PLURIPATOLOGIA_DISC-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA_DISC-Provincia-trans_dic.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,45</t>
+          <t>0,55; 4,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,07</t>
+          <t>0,06; 2,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 12,31</t>
+          <t>5,18; 11,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,84</t>
+          <t>0,18; 1,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,08</t>
+          <t>3,18; 7,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,5</t>
+          <t>0,29; 1,53</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,53</t>
+          <t>1,44; 4,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,63</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,27</t>
+          <t>2,07; 5,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,94</t>
+          <t>4,37; 8,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,69</t>
+          <t>1,03; 3,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,47</t>
+          <t>5,5; 9,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,96</t>
+          <t>3,38; 6,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,18</t>
+          <t>0,78; 2,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,7</t>
+          <t>4,19; 6,65</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,49</t>
+          <t>0,3; 2,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,23</t>
+          <t>1,92; 5,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,85</t>
+          <t>0,93; 4,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,41</t>
+          <t>4,41; 8,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,13</t>
+          <t>0,82; 3,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,27</t>
+          <t>3,65; 6,34</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,49</t>
+          <t>0,64; 2,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,33</t>
+          <t>0,24; 2,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,56</t>
+          <t>3,14; 8,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,87</t>
+          <t>3,89; 7,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,96</t>
+          <t>2,08; 6,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,07</t>
+          <t>6,04; 10,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,59</t>
+          <t>2,6; 4,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,61</t>
+          <t>1,41; 3,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,41</t>
+          <t>5,18; 8,29</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,93</t>
+          <t>1,54; 7,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,7</t>
+          <t>0,44; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,93</t>
+          <t>0,65; 3,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,79</t>
+          <t>3,77; 10,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 9,04</t>
+          <t>2,94; 9,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,35</t>
+          <t>3,51; 8,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,53</t>
+          <t>3,39; 7,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,38</t>
+          <t>1,76; 5,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,83</t>
+          <t>2,77; 5,68</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,09</t>
+          <t>0,3; 2,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,57</t>
+          <t>4,86; 9,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,82</t>
+          <t>0,42; 3,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,55</t>
+          <t>2,11; 7,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,5</t>
+          <t>6,06; 10,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,5</t>
+          <t>0,39; 2,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,4</t>
+          <t>1,5; 4,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,29</t>
+          <t>6,16; 9,52</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,68</t>
+          <t>0,29; 1,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,73</t>
+          <t>0,72; 2,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,53</t>
+          <t>1,79; 4,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,44</t>
+          <t>1,89; 4,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,12</t>
+          <t>2,04; 4,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,48</t>
+          <t>4,53; 9,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,77</t>
+          <t>1,22; 2,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,55</t>
+          <t>3,97; 6,61</t>
         </is>
       </c>
     </row>
@@ -1709,17 +1709,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,76</t>
+          <t>0,28; 1,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,61</t>
+          <t>0,36; 1,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,84</t>
+          <t>0,83; 2,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1729,17 +1729,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,86</t>
+          <t>3,01; 5,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,31</t>
+          <t>2,41; 5,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,35</t>
+          <t>4,03; 8,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,48</t>
+          <t>1,86; 3,52</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,29</t>
+          <t>1,6; 3,28</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,09</t>
+          <t>2,69; 5,08</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,81</t>
+          <t>0,98; 1,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,45</t>
+          <t>0,7; 1,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,57</t>
+          <t>2,46; 3,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,09</t>
+          <t>3,69; 5,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,3</t>
+          <t>3,02; 4,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,52; 7,21</t>
+          <t>5,49; 7,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1889,17 +1889,17 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,34</t>
+          <t>2,48; 3,31</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,71</t>
+          <t>2,0; 2,7</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,28; 5,26</t>
+          <t>4,24; 5,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PLURIPATOLOGIA_DISC-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA_DISC-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,06</t>
+          <t>0,61; 4,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 11,82</t>
+          <t>4,89; 11,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,22</t>
+          <t>3,33; 7,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,77</t>
+          <t>1,44; 4,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,17; 1,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,85</t>
+          <t>4,27; 8,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,68</t>
+          <t>1,05; 3,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,06</t>
+          <t>3,23; 5,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,32</t>
+          <t>0,71; 2,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,68</t>
+          <t>0,3; 2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,76</t>
+          <t>0,94; 5,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,08</t>
+          <t>0,89; 3,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,39</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,46</t>
+          <t>0,63; 2,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,61</t>
+          <t>0,24; 2,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,58</t>
+          <t>4,03; 7,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,11</t>
+          <t>2,05; 5,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,58</t>
+          <t>2,57; 4,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,67</t>
+          <t>1,46; 3,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,2</t>
+          <t>1,63; 7,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,03</t>
+          <t>0,44; 3,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 10,81</t>
+          <t>3,89; 10,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,28</t>
+          <t>3,0; 9,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,86</t>
+          <t>3,36; 7,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,28</t>
+          <t>1,94; 5,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,62</t>
+          <t>0,3; 2,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,97</t>
+          <t>0,73; 4,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,22</t>
+          <t>2,02; 7,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,3</t>
+          <t>0,39; 2,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,38</t>
+          <t>1,46; 4,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,63</t>
+          <t>0,3; 1,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,77</t>
+          <t>0,73; 2,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,59</t>
+          <t>1,82; 4,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,99</t>
+          <t>2,08; 5,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,46</t>
+          <t>1,69; 3,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,68</t>
+          <t>0,29; 1,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,75</t>
+          <t>0,33; 1,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1729,12 +1729,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,87</t>
+          <t>2,92; 5,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,42</t>
+          <t>2,46; 5,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,52</t>
+          <t>1,93; 3,56</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,28</t>
+          <t>1,48; 3,1</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,79</t>
+          <t>0,99; 1,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,35</t>
+          <t>0,67; 1,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,06</t>
+          <t>3,68; 5,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,29</t>
+          <t>2,91; 4,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,31</t>
+          <t>2,5; 3,27</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,7</t>
+          <t>1,98; 2,76</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/PLURIPATOLOGIA_DISC-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA_DISC-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,26</t>
+          <t>0,61; 4,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,33</t>
+          <t>0,06; 2,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,94</t>
+          <t>5,21; 12,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,93</t>
+          <t>0,18; 1,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,16</t>
+          <t>3,25; 7,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,53</t>
+          <t>0,29; 1,5</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,84</t>
+          <t>1,45; 4,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,75</t>
+          <t>0,17; 1,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,44</t>
+          <t>2,0; 5,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,59</t>
+          <t>4,43; 8,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,8</t>
+          <t>1,04; 3,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,29</t>
+          <t>5,57; 9,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,9</t>
+          <t>3,37; 5,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,22</t>
+          <t>0,74; 2,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,65</t>
+          <t>4,19; 6,7</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,79</t>
+          <t>0,3; 2,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,35</t>
+          <t>1,9; 5,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,1</t>
+          <t>0,98; 4,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,31</t>
+          <t>4,43; 8,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,01</t>
+          <t>0,88; 3,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,34</t>
+          <t>3,7; 6,27</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,49</t>
+          <t>0,61; 2,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,41</t>
+          <t>0,28; 2,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,69</t>
+          <t>3,02; 8,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,76</t>
+          <t>4,17; 7,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,81</t>
+          <t>2,12; 5,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,05</t>
+          <t>6,11; 10,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,58</t>
+          <t>2,55; 4,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,68</t>
+          <t>1,5; 3,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,29</t>
+          <t>5,28; 8,41</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,47</t>
+          <t>1,5; 6,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,74</t>
+          <t>0,44; 3,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,73</t>
+          <t>0,72; 3,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,79</t>
+          <t>4,04; 10,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,33</t>
+          <t>2,76; 9,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 8,36</t>
+          <t>3,52; 8,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,72</t>
+          <t>3,3; 7,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,61</t>
+          <t>1,89; 5,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,68</t>
+          <t>2,82; 5,83</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,75</t>
+          <t>0,3; 3,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,77</t>
+          <t>4,82; 9,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,19</t>
+          <t>0,68; 3,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,45</t>
+          <t>2,02; 7,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,81</t>
+          <t>6,04; 10,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,52</t>
+          <t>0,4; 2,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,2</t>
+          <t>1,5; 4,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,52</t>
+          <t>6,14; 9,29</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,7</t>
+          <t>0,29; 1,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,91</t>
+          <t>0,76; 2,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,5</t>
+          <t>1,77; 4,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,5</t>
+          <t>1,71; 4,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,05</t>
+          <t>2,08; 5,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,56</t>
+          <t>4,45; 9,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,78</t>
+          <t>1,23; 2,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,48</t>
+          <t>1,64; 3,46</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,61</t>
+          <t>3,84; 6,55</t>
         </is>
       </c>
     </row>
@@ -1709,17 +1709,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,67</t>
+          <t>0,28; 1,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,67</t>
+          <t>0,27; 1,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,59</t>
+          <t>0,9; 2,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1729,17 +1729,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,86</t>
+          <t>2,96; 5,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,4</t>
+          <t>2,56; 5,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,68</t>
+          <t>4,03; 8,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,56</t>
+          <t>1,96; 3,48</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,1</t>
+          <t>1,64; 3,29</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,08</t>
+          <t>2,66; 5,09</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,79</t>
+          <t>0,98; 1,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,35</t>
+          <t>0,71; 1,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,6</t>
+          <t>2,44; 3,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,12</t>
+          <t>3,65; 5,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,35</t>
+          <t>2,99; 4,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,11</t>
+          <t>5,52; 7,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1889,17 +1889,17 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,27</t>
+          <t>2,51; 3,34</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,76</t>
+          <t>1,97; 2,71</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,24; 5,24</t>
+          <t>4,28; 5,26</t>
         </is>
       </c>
     </row>
